--- a/data/trans_orig/TAM_HOG-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.896033877223017</v>
+        <v>2.903283623071347</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.178269203003971</v>
+        <v>3.192239882528046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.965427968817825</v>
+        <v>2.971319431486085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.509886583047849</v>
+        <v>2.510333634005201</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.973492185734883</v>
+        <v>2.968976983064534</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.212180344927546</v>
+        <v>3.209472518512164</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.900900980545738</v>
+        <v>2.894729350588814</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.581618842829125</v>
+        <v>2.587100078577786</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.971163759293349</v>
+        <v>2.971908678326235</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.22195941846602</v>
+        <v>3.219896853568174</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.957696675320665</v>
+        <v>2.955859301928482</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.58199533418413</v>
+        <v>2.586805525678073</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.132710362123382</v>
+        <v>3.137366364581983</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.347348241628627</v>
+        <v>3.354419832583202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.148335943172853</v>
+        <v>3.147580970093153</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.810335820521365</v>
+        <v>2.806919787848093</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.163674023510735</v>
+        <v>3.167399892257432</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.379684630609293</v>
+        <v>3.386485448141912</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.049213146231863</v>
+        <v>3.057068971617948</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.788708900913185</v>
+        <v>2.791804001159665</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.127398270285157</v>
+        <v>3.121472659932619</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.343908672829797</v>
+        <v>3.341297218089381</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.073682961874886</v>
+        <v>3.06915558482057</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.755120965952296</v>
+        <v>2.76393488696442</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.093794391804178</v>
+        <v>3.088988397329041</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.155488441326516</v>
+        <v>3.153367076029826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.837790080498593</v>
+        <v>2.836039038672962</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.68035632745087</v>
+        <v>2.67733364970155</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.122035811883471</v>
+        <v>3.120260062501417</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.121248676457644</v>
+        <v>3.119879429658486</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.884854788934285</v>
+        <v>2.879582904699411</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.771572394603857</v>
+        <v>2.773967786148138</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.133419355091719</v>
+        <v>3.135147913634663</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.15926815749715</v>
+        <v>3.154783034523569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2.885481959217941</v>
+        <v>2.886963839763549</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.75726351716622</v>
+        <v>2.753283694971042</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.23814845248508</v>
+        <v>3.238261475213233</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.304134955434564</v>
+        <v>3.302378246512458</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.000148561661501</v>
+        <v>2.993607680926724</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.856782293626948</v>
+        <v>2.865650465192339</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.278801365379962</v>
+        <v>3.278030293483934</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.280121214895155</v>
+        <v>3.278040608696785</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.046536472071097</v>
+        <v>3.045356260684529</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.937453891239961</v>
+        <v>2.935150566284943</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.241418022557758</v>
+        <v>3.245317392941039</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.27307510840589</v>
+        <v>3.266397131167205</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.004973240666197</v>
+        <v>3.000836395200916</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.87878083939332</v>
+        <v>2.876989411609684</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.158064985334952</v>
+        <v>3.162157602701755</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.966928224742038</v>
+        <v>2.964934986165206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.82214295858605</v>
+        <v>2.831372680017839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.660098628011433</v>
+        <v>2.661048854013312</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.211761722327066</v>
+        <v>3.213104596109896</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.921465560644319</v>
+        <v>2.918212387406971</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.747971022996348</v>
+        <v>2.751586613235836</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.774635820153589</v>
+        <v>2.773149268964689</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.215996976316304</v>
+        <v>3.209850760114222</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2.964589907356878</v>
+        <v>2.966561380718183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.816854207378821</v>
+        <v>2.81863222662009</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.735656200101719</v>
+        <v>2.731702644657787</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.300430546043234</v>
+        <v>3.305257227545806</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.136112660564143</v>
+        <v>3.142562250139919</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.990862778185678</v>
+        <v>2.992630235809219</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.822421745595434</v>
+        <v>2.820892859734313</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.370330923732934</v>
+        <v>3.367603031038454</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.085804330181158</v>
+        <v>3.085836985123697</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.928602465810164</v>
+        <v>2.930396355705794</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.908672818688606</v>
+        <v>2.906994090294956</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.318975492074161</v>
+        <v>3.312600781772644</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.08176167613326</v>
+        <v>3.086671822628874</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.942525541131128</v>
+        <v>2.934234695414066</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.843494636566339</v>
+        <v>2.839986083607129</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.092885788425588</v>
+        <v>3.095555219755632</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.935274937392023</v>
+        <v>2.927670319781385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.655864132319836</v>
+        <v>2.643393552147936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.598926177322759</v>
+        <v>2.601988483107329</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.291930634939032</v>
+        <v>3.284875895476008</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.86653833724709</v>
+        <v>2.86360537657365</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.719019434699337</v>
+        <v>2.725953318552965</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.704906875192913</v>
+        <v>2.71715230348421</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.211751360303362</v>
+        <v>3.21157742728869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2.92854161661588</v>
+        <v>2.939077191418555</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.718840314074497</v>
+        <v>2.709508395276687</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.678947298250387</v>
+        <v>2.679762037787088</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.324360417634337</v>
+        <v>3.32573499658662</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.164031028477514</v>
+        <v>3.159623116603863</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.878686234890812</v>
+        <v>2.867904480189325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.773889904514209</v>
+        <v>2.782574190466286</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.575262524363399</v>
+        <v>3.565800260502364</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.12052063140061</v>
+        <v>3.112819750663725</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.944840743716913</v>
+        <v>2.941691190832302</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.85109075600144</v>
+        <v>2.860938817433719</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.384544773342043</v>
+        <v>3.394844186736538</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.096101103737773</v>
+        <v>3.104353689450646</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.877442886158173</v>
+        <v>2.866530406747215</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.793484879062558</v>
+        <v>2.789853003772684</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.12320184041145</v>
+        <v>3.125773878773635</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.125376560891526</v>
+        <v>3.122748573257605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.891857906420534</v>
+        <v>2.891346876539888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.671974918494903</v>
+        <v>2.672719028456872</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.169749861434615</v>
+        <v>3.169037235695173</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.106867305026508</v>
+        <v>3.102954802247112</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.878739808297464</v>
+        <v>2.878161449433707</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.764271082547276</v>
+        <v>2.76200431373003</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.163056615697745</v>
+        <v>3.159447789972907</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3.128933689971428</v>
+        <v>3.130504631264729</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.895860137539601</v>
+        <v>2.900490530501194</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.733136457121385</v>
+        <v>2.730673521784539</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.209757485508778</v>
+        <v>3.21152872889527</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.214973598982974</v>
+        <v>3.209648054255852</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.980025897023877</v>
+        <v>2.984609222652816</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.766580826835227</v>
+        <v>2.767051557719127</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.262167622719166</v>
+        <v>3.261832529468335</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.196268795066869</v>
+        <v>3.196152766444397</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.961495362262098</v>
+        <v>2.964318813448034</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.844024471606167</v>
+        <v>2.844337506148457</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.222933209228375</v>
+        <v>3.219783556378591</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3.195711135463434</v>
+        <v>3.192254269903825</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.961299519995809</v>
+        <v>2.962602485065676</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.792316207870159</v>
+        <v>2.793755348103474</v>
       </c>
     </row>
     <row r="19">
